--- a/biology/Botanique/Reinette_Baumann/Reinette_Baumann.xlsx
+++ b/biology/Botanique/Reinette_Baumann/Reinette_Baumann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -506,9 +518,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Reinette Baumann est une variété de pomme obtenue par Jean-Baptiste Van Mons  dans ses pépinières de la fidélité à Bruxelles vers 1800. Il nomma cette variété en hommage aux frères Baumann, célèbres pépiniéristes de Bollwiller dans le Haut-Rhin[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reinette Baumann est une variété de pomme obtenue par Jean-Baptiste Van Mons  dans ses pépinières de la fidélité à Bruxelles vers 1800. Il nomma cette variété en hommage aux frères Baumann, célèbres pépiniéristes de Bollwiller dans le Haut-Rhin. 
 </t>
         </is>
       </c>
@@ -537,7 +551,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fruit est gros, de forme conique, raccourcie et ventrue. La peau est jaune lavée de rouge.
 Le pédoncule est très gros et très court.
@@ -570,7 +586,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Reinette Baumann est un arbre peu vigoureux moyennement fertile.
 On peut le greffer sur porte-greffe nain mais en haute tige, il vaut mieux le greffer en tête.
